--- a/mcmaster_excel/Narrow_Cheese_Head_Phillips_Screws.xlsx
+++ b/mcmaster_excel/Narrow_Cheese_Head_Phillips_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,139 +434,105 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg., mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia., mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Finish</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>SpecificationsMet</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr"/>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Lg., mm</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>HeadDia., mm</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>HeadHt., mm</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>DriveSize</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Passivated</t>
+          <t>Finish</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>100,000</t>
+          <t>TensileStrength, psi</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>ISO 7048</t>
+          <t>SpecificationsMet</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>94017A100</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>$9.00</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>M2 × 0.4 mm</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -611,12 +577,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>94017A101</t>
+          <t>94017A100</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>10.68</t>
+          <t>$9.00</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -633,7 +599,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -678,12 +644,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>94017A102</t>
+          <t>94017A101</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>9.54</t>
+          <t>10.68</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -700,7 +666,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -745,12 +711,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>94017A106</t>
+          <t>94017A102</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>11.45</t>
+          <t>9.54</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -767,7 +733,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -792,7 +758,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>Passivated</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -807,17 +773,17 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>94017A108</t>
+          <t>94017A106</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>9.81</t>
+          <t>11.45</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -834,7 +800,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -844,12 +810,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -859,7 +825,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Passivated</t>
+          <t>__</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -874,22 +840,22 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>94017A150</t>
+          <t>94017A108</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>10.36</t>
+          <t>9.81</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>M2.5 × 0.45 mm</t>
+          <t>M2 × 0.4 mm</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -901,7 +867,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -946,12 +912,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>94017A152</t>
+          <t>94017A150</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>11.72</t>
+          <t>10.36</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -968,7 +934,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1013,12 +979,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>94017A154</t>
+          <t>94017A152</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>12.21</t>
+          <t>11.72</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1035,7 +1001,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1080,12 +1046,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>94017A156</t>
+          <t>94017A154</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>12.81</t>
+          <t>12.21</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1102,7 +1068,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1112,17 +1078,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1147,7 +1113,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>94017A200</t>
+          <t>94017A156</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1157,7 +1123,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>M3 × 0.5 mm</t>
+          <t>M2.5 × 0.45 mm</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1169,7 +1135,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1194,7 +1160,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>Passivated</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1209,17 +1175,17 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>94017A201</t>
+          <t>94017A200</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>17.99</t>
+          <t>12.81</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1236,7 +1202,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1261,7 +1227,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Passivated</t>
+          <t>__</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1276,17 +1242,17 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>94017A202</t>
+          <t>94017A201</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>13.19</t>
+          <t>17.99</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1303,7 +1269,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1348,12 +1314,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>94017A204</t>
+          <t>94017A202</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>13.38</t>
+          <t>13.19</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1370,7 +1336,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1415,12 +1381,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>94017A206</t>
+          <t>94017A204</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>13.57</t>
+          <t>13.38</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1437,7 +1403,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1462,7 +1428,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>Passivated</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1482,12 +1448,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>94017A208</t>
+          <t>94017A206</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>13.90</t>
+          <t>13.57</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1504,7 +1470,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1514,12 +1480,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1544,22 +1510,22 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>94017A248</t>
+          <t>94017A208</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>11.45</t>
+          <t>13.90</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>M4 × 0.7 mm</t>
+          <t>M3 × 0.5 mm</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1571,7 +1537,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1596,7 +1562,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Passivated</t>
+          <t>__</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1616,12 +1582,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>94017A250</t>
+          <t>94017A248</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>9.96</t>
+          <t>11.45</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1638,7 +1604,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1683,12 +1649,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>94017A252</t>
+          <t>94017A250</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>10.36</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1705,7 +1671,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1750,12 +1716,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>94017A254</t>
+          <t>94017A252</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>11.86</t>
+          <t>10.36</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1772,7 +1738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1797,7 +1763,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>Passivated</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1817,12 +1783,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>94017A258</t>
+          <t>94017A254</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>12.54</t>
+          <t>11.86</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1839,7 +1805,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1849,12 +1815,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1864,7 +1830,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Passivated</t>
+          <t>__</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1884,17 +1850,17 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>94017A300</t>
+          <t>94017A258</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>11.31</t>
+          <t>12.54</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>M5 × 0.8 mm</t>
+          <t>M4 × 0.7 mm</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -1906,7 +1872,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1951,12 +1917,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>94017A302</t>
+          <t>94017A300</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>12.95</t>
+          <t>11.31</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1973,7 +1939,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2013,17 +1979,17 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>94017A304</t>
+          <t>94017A302</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>9.16</t>
+          <t>12.95</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2040,7 +2006,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2065,7 +2031,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>Passivated</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2085,12 +2051,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>94017A308</t>
+          <t>94017A304</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>9.32</t>
+          <t>9.16</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2107,7 +2073,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2152,12 +2118,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>94017A312</t>
+          <t>94017A308</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>9.81</t>
+          <t>9.32</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2174,7 +2140,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2184,22 +2150,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Passivated</t>
+          <t>__</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2219,17 +2185,17 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>94017A360</t>
+          <t>94017A312</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>9.81</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>M6 × 1 mm</t>
+          <t>M5 × 0.8 mm</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2241,57 +2207,57 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>No. 3</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Passivated</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>ISO 7048</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>No. 3</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>100,000</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ISO 7048</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>94017A362</t>
+          <t>94017A360</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>9.81</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2308,7 +2274,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2333,7 +2299,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Passivated</t>
+          <t>__</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2353,12 +2319,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>94017A364</t>
+          <t>94017A362</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>8.34</t>
+          <t>9.81</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2375,7 +2341,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2420,12 +2386,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>94017A368</t>
+          <t>94017A364</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>8.94</t>
+          <t>8.34</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2442,65 +2408,132 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>No. 3</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Passivated</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>ISO 7048</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>94017A368</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t>10.00</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>3.90</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>No. 3</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>__</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>100,000</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ISO 7048</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>ISO 7048</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>94017A372</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>9.92</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>M6 × 1 mm</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
         </is>
